--- a/data/Denver_GDP.xlsx
+++ b/data/Denver_GDP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whelvey\Documents\GitHub\inflation_cr_expansion\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\inflation_cr_expansion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38F4E80D-30A8-4E5D-8305-CC488DA5FB9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB55960-A657-4F79-8C13-C8C956EF0526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F12:F13"/>
+      <selection activeCell="A28" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -471,7 +471,7 @@
         <v>36892</v>
       </c>
       <c r="B12" s="2">
-        <v>108315.38400000001</v>
+        <v>107439.62699999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -479,7 +479,7 @@
         <v>37257</v>
       </c>
       <c r="B13" s="2">
-        <v>110612.924</v>
+        <v>109575.857</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -487,7 +487,7 @@
         <v>37622</v>
       </c>
       <c r="B14" s="2">
-        <v>112930.527</v>
+        <v>111826.23299999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -495,7 +495,7 @@
         <v>37987</v>
       </c>
       <c r="B15" s="2">
-        <v>115855.071</v>
+        <v>115122.352</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -503,7 +503,7 @@
         <v>38353</v>
       </c>
       <c r="B16" s="2">
-        <v>123804.925</v>
+        <v>123337.59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -511,7 +511,7 @@
         <v>38718</v>
       </c>
       <c r="B17" s="2">
-        <v>128541.781</v>
+        <v>129242.845</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -519,7 +519,7 @@
         <v>39083</v>
       </c>
       <c r="B18" s="2">
-        <v>137052.35</v>
+        <v>138503.71400000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -527,7 +527,7 @@
         <v>39448</v>
       </c>
       <c r="B19" s="2">
-        <v>139110.51500000001</v>
+        <v>140775.522</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -535,7 +535,7 @@
         <v>39814</v>
       </c>
       <c r="B20" s="2">
-        <v>137062.571</v>
+        <v>138281.399</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>40179</v>
       </c>
       <c r="B21" s="2">
-        <v>141029.6</v>
+        <v>142517.16399999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -551,7 +551,7 @@
         <v>40544</v>
       </c>
       <c r="B22" s="2">
-        <v>145839.443</v>
+        <v>147392.85500000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -559,7 +559,7 @@
         <v>40909</v>
       </c>
       <c r="B23" s="2">
-        <v>153286.55600000001</v>
+        <v>154899.04800000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -567,7 +567,7 @@
         <v>41275</v>
       </c>
       <c r="B24" s="2">
-        <v>162500.802</v>
+        <v>164035.64499999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
         <v>41640</v>
       </c>
       <c r="B25" s="2">
-        <v>172421.22700000001</v>
+        <v>173826.48499999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -583,7 +583,7 @@
         <v>42005</v>
       </c>
       <c r="B26" s="2">
-        <v>183668.00099999999</v>
+        <v>184611.894</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -591,7 +591,7 @@
         <v>42370</v>
       </c>
       <c r="B27" s="2">
-        <v>190317.435</v>
+        <v>190857.98699999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -599,7 +599,7 @@
         <v>42736</v>
       </c>
       <c r="B28" s="2">
-        <v>200836.995</v>
+        <v>199940.10699999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -607,7 +607,7 @@
         <v>43101</v>
       </c>
       <c r="B29" s="2">
-        <v>214580.30499999999</v>
+        <v>213146.12700000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -615,7 +615,15 @@
         <v>43466</v>
       </c>
       <c r="B30" s="2">
-        <v>227395.64</v>
+        <v>227259.59700000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B31" s="2">
+        <v>223145.76</v>
       </c>
     </row>
   </sheetData>
